--- a/examples/sample_risk_assessment.xlsx
+++ b/examples/sample_risk_assessment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Risk Factor</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">Likelihood</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk_Level</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk 1</t>
   </si>
   <si>
     <t xml:space="preserve">Risk 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk 4</t>
   </si>
 </sst>
 </file>
@@ -52,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,11 +77,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,13 +158,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -170,13 +176,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>5</v>
@@ -184,13 +187,10 @@
       <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3</v>
@@ -198,8 +198,27 @@
       <c r="C3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>12</v>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
